--- a/comparison_results/PSO_PID_With_Disturbance_Test_4.xlsx
+++ b/comparison_results/PSO_PID_With_Disturbance_Test_4.xlsx
@@ -545,64 +545,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03240908588261222</v>
+        <v>0.0599694974835967</v>
       </c>
       <c r="C2" t="n">
-        <v>1.111111111111111</v>
+        <v>2.162162162162162</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6574711201657868</v>
+        <v>4.344240488977613</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01432817107231801</v>
+        <v>0.009396783326321972</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07978627151402022</v>
+        <v>0.06064634694003955</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5595469193982867</v>
+        <v>0.5115930120505329</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1840477948649505</v>
+        <v>0.1672823246719959</v>
       </c>
       <c r="J2" t="n">
-        <v>11.03231721860478</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9548203650541853</v>
+        <v>0.9567368227602647</v>
       </c>
       <c r="L2" t="n">
-        <v>4.999883373636005</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>2.330839899852784</v>
+        <v>2.730955247559574</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04498777696868998</v>
+        <v>0.0836422638287718</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6421773402820284</v>
+        <v>0.1113834062355783</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1</v>
+        <v>4.149114010214638</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0320045514746738</v>
+        <v>0.06731094368430522</v>
       </c>
       <c r="R2" t="n">
-        <v>1.595374830888705</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>9.468636850655269</v>
+        <v>4.723283166878329</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02450264238299684</v>
+        <v>0.06360207886693801</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1</v>
+        <v>0.6663783989677703</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06005358803141513</v>
+        <v>0.03262947347803104</v>
       </c>
       <c r="C3" t="n">
-        <v>2.182182182182182</v>
+        <v>1.151151151151151</v>
       </c>
       <c r="D3" t="n">
-        <v>4.266257921143701</v>
+        <v>0.3106218906052893</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7507507507507507</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01157412946973068</v>
+        <v>0.01418522968030441</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05970012175678585</v>
+        <v>0.08286069804727941</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5012818543295571</v>
+        <v>0.5658694990342508</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1672479216486463</v>
+        <v>0.1858652169137199</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>10.7213575563964</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9538060622601721</v>
+        <v>0.955181734849444</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>2.118195935871594</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07533944482580868</v>
+        <v>0.03584517883632907</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35231144019426</v>
+        <v>0.399242764846336</v>
       </c>
       <c r="P3" t="n">
-        <v>4.585700455472392</v>
+        <v>7.552177740007322</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001</v>
+        <v>0.004841909611702997</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.983359527217895</v>
       </c>
       <c r="S3" t="n">
-        <v>6.530310267875132</v>
+        <v>7.974589032057009</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01416246436989167</v>
+        <v>0.06064950257038818</v>
       </c>
       <c r="U3" t="n">
-        <v>1.808087202267449</v>
+        <v>1.639221117871987</v>
       </c>
     </row>
     <row r="4">
@@ -675,64 +675,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03253142031711773</v>
+        <v>0.03296430514349263</v>
       </c>
       <c r="C4" t="n">
-        <v>1.131131131131131</v>
+        <v>1.171171171171171</v>
       </c>
       <c r="D4" t="n">
-        <v>0.490031160287252</v>
+        <v>0.202978576596502</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.7607607607607607</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01487839133265277</v>
+        <v>0.01467388279971127</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08173681840306157</v>
+        <v>0.08464608300596828</v>
       </c>
       <c r="H4" t="n">
-        <v>0.562554297566815</v>
+        <v>0.5751365379226927</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1851121628409691</v>
+        <v>0.1867176696103925</v>
       </c>
       <c r="J4" t="n">
-        <v>10.85460437883891</v>
+        <v>10.58745720912197</v>
       </c>
       <c r="K4" t="n">
-        <v>0.954266606425891</v>
+        <v>0.9547980223708953</v>
       </c>
       <c r="L4" t="n">
-        <v>4.998140361772489</v>
+        <v>4.999165739961585</v>
       </c>
       <c r="M4" t="n">
-        <v>9.207929768017193</v>
+        <v>1.243652170590391</v>
       </c>
       <c r="N4" t="n">
-        <v>0.006517255226668006</v>
+        <v>0.001013026398411168</v>
       </c>
       <c r="O4" t="n">
-        <v>1.98191806099884</v>
+        <v>0.1015253814264345</v>
       </c>
       <c r="P4" t="n">
-        <v>10</v>
+        <v>0.9880017396485715</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0294201717623744</v>
+        <v>0.03051963529053317</v>
       </c>
       <c r="R4" t="n">
-        <v>1.717859509848855</v>
+        <v>0.1069753585728349</v>
       </c>
       <c r="S4" t="n">
-        <v>5.322665553474886</v>
+        <v>7.322857274999818</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0315944835255581</v>
+        <v>0.06811845297287329</v>
       </c>
       <c r="U4" t="n">
-        <v>1.761740973161944</v>
+        <v>0.6652532125412692</v>
       </c>
     </row>
     <row r="5">
@@ -740,64 +740,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05986022858978166</v>
+        <v>0.06007656173740718</v>
       </c>
       <c r="C5" t="n">
-        <v>2.162162162162162</v>
+        <v>2.172172172172172</v>
       </c>
       <c r="D5" t="n">
-        <v>4.501645937707544</v>
+        <v>4.298289016302004</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.5105105105105106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01087063239668169</v>
+        <v>0.01053380617221554</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05526724648576573</v>
+        <v>0.06157298120762247</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4854726661472492</v>
+        <v>0.5111401582742663</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1663957259038093</v>
+        <v>0.1673835838847628</v>
       </c>
       <c r="J5" t="n">
         <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9546806734154676</v>
+        <v>0.9549101659905734</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.966263214889046</v>
       </c>
       <c r="M5" t="n">
-        <v>7.429983959291044</v>
+        <v>3.541646228416175</v>
       </c>
       <c r="N5" t="n">
-        <v>0.07182288550551463</v>
+        <v>0.001</v>
       </c>
       <c r="O5" t="n">
-        <v>1.987477150114273</v>
+        <v>0.4213218916535751</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1</v>
+        <v>6.39090671441594</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04741051285556373</v>
+        <v>0.06595022429814783</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6920371138409965</v>
+        <v>0.9264044181160628</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>9.27221817327921</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0886833387081612</v>
+        <v>0.02492370931685708</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5141045837196175</v>
+        <v>1.75064147355881</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06021302044137172</v>
+        <v>0.03265658538227564</v>
       </c>
       <c r="C6" t="n">
-        <v>2.212212212212212</v>
+        <v>1.081081081081081</v>
       </c>
       <c r="D6" t="n">
-        <v>4.055923341633472</v>
+        <v>1.112348732819068</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7107107107107107</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01318259224816584</v>
+        <v>0.01347882802894439</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05889772998080374</v>
+        <v>0.07817570601589499</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5002362089317132</v>
+        <v>0.5560808039280338</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1670257402082433</v>
+        <v>0.1833413344967827</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>11.07118062802006</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9511108405899483</v>
+        <v>0.9555281437626063</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4.951755304928469</v>
       </c>
       <c r="M6" t="n">
-        <v>1.903199369196811</v>
+        <v>1.786343305818228</v>
       </c>
       <c r="N6" t="n">
-        <v>0.08953477026947837</v>
+        <v>0.05551531305510914</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5900104447051979</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>6.238056071742151</v>
+        <v>4.314404141246714</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04552803285532522</v>
+        <v>0.05803139387041873</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5944787328562677</v>
+        <v>1.78772356320158</v>
       </c>
       <c r="S6" t="n">
-        <v>7.397019337685885</v>
+        <v>0.1003220723683045</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04407704627441191</v>
+        <v>0.1</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7239914873848697</v>
+        <v>0.2741178081403581</v>
       </c>
     </row>
     <row r="7">
@@ -870,64 +870,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03276844217586274</v>
+        <v>0.06005166410738403</v>
       </c>
       <c r="C7" t="n">
-        <v>1.171171171171171</v>
+        <v>2.192192192192192</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1607322296182323</v>
+        <v>4.165450937838133</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7607607607607607</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01430238502727894</v>
+        <v>0.01262986025955014</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08375911152955402</v>
+        <v>0.05898661558512363</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5680666416017016</v>
+        <v>0.5015332462902111</v>
       </c>
       <c r="I7" t="n">
-        <v>0.186424743414883</v>
+        <v>0.1671008849536215</v>
       </c>
       <c r="J7" t="n">
-        <v>10.63720588198428</v>
+        <v>14.99852885292159</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9548577525967944</v>
+        <v>0.9517625750275563</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>9.515399526458834</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001</v>
+        <v>0.05109267120791673</v>
       </c>
       <c r="O7" t="n">
-        <v>1.821005194790641</v>
+        <v>0.1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8433038489406615</v>
+        <v>1.006733946248865</v>
       </c>
       <c r="Q7" t="n">
+        <v>0.04001722855228877</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8980674246732241</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.497579935283019</v>
+      </c>
+      <c r="T7" t="n">
         <v>0.1</v>
       </c>
-      <c r="R7" t="n">
-        <v>0.6659767381502744</v>
-      </c>
-      <c r="S7" t="n">
-        <v>7.403213088215185</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.001</v>
-      </c>
       <c r="U7" t="n">
-        <v>0.2899343609049078</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -935,61 +935,61 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05998651912743969</v>
+        <v>0.03238371865711337</v>
       </c>
       <c r="C8" t="n">
-        <v>2.172172172172172</v>
+        <v>1.121121121121121</v>
       </c>
       <c r="D8" t="n">
-        <v>4.269875767828935</v>
+        <v>0.5044175181796007</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7307307307307307</v>
       </c>
       <c r="F8" t="n">
-        <v>0.009666842756933178</v>
+        <v>0.01476641787312189</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0608673603721795</v>
+        <v>0.08100870586459498</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5092079990736866</v>
+        <v>0.5644272642096113</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1674245918158689</v>
+        <v>0.184608668653039</v>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>10.94213099084656</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9563266488189048</v>
+        <v>0.9542391512695874</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>5.142758431854057</v>
+        <v>0.1861393657573582</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04866531191693776</v>
+        <v>0.06484014027585935</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9107285077712994</v>
+        <v>1.585824866528533</v>
       </c>
       <c r="P8" t="n">
-        <v>7.728313592212291</v>
+        <v>9.30528523972297</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02186914825797899</v>
+        <v>0.09208722355648405</v>
       </c>
       <c r="R8" t="n">
-        <v>1.64253400911416</v>
+        <v>0.2813026930134983</v>
       </c>
       <c r="S8" t="n">
-        <v>8.893039459971328</v>
+        <v>1.567480039503711</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1</v>
+        <v>0.001097422827091439</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
@@ -1000,64 +1000,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06001373497639085</v>
+        <v>0.05977263250484131</v>
       </c>
       <c r="C9" t="n">
-        <v>2.192192192192192</v>
+        <v>2.172172172172172</v>
       </c>
       <c r="D9" t="n">
-        <v>4.189640162788888</v>
+        <v>4.244111751628044</v>
       </c>
       <c r="E9" t="n">
         <v>0.5205205205205206</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01279192292412125</v>
+        <v>0.01174748165402152</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05790248367903676</v>
+        <v>0.05874171852092352</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4962130603263336</v>
+        <v>0.4992343498010823</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1668821686734219</v>
+        <v>0.1670435419130274</v>
       </c>
       <c r="J9" t="n">
         <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9518670202803637</v>
+        <v>0.9537916162345843</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>6.811535159349007</v>
+        <v>6.75109225220788</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01306135343044789</v>
+        <v>0.08337859935858492</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="P9" t="n">
-        <v>10</v>
+        <v>4.093007027282356</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1</v>
+        <v>0.009169431650688037</v>
       </c>
       <c r="R9" t="n">
-        <v>1.011256700376522</v>
+        <v>0.9298984717207786</v>
       </c>
       <c r="S9" t="n">
-        <v>3.088324830527551</v>
+        <v>9.999717822772462</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09799419144987638</v>
+        <v>0.009085677144573879</v>
       </c>
       <c r="U9" t="n">
-        <v>0.6359681761683785</v>
+        <v>0.1377520675998915</v>
       </c>
     </row>
     <row r="10">
@@ -1065,64 +1065,64 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06024363289893286</v>
+        <v>0.03267937185974853</v>
       </c>
       <c r="C10" t="n">
-        <v>2.252252252252252</v>
+        <v>1.151151151151151</v>
       </c>
       <c r="D10" t="n">
-        <v>3.539675791390562</v>
+        <v>0.3048464595803546</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5505505505505506</v>
+        <v>0.7507507507507507</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01159241403714152</v>
+        <v>0.01447205020908652</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06213619613327281</v>
+        <v>0.08308912165141491</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5164279396204703</v>
+        <v>0.5698747458437541</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1698994896305768</v>
+        <v>0.1859587004722241</v>
       </c>
       <c r="J10" t="n">
-        <v>14.1824016793439</v>
+        <v>10.71101191245202</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9543594807275532</v>
+        <v>0.9547123768429998</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>9.872465820737929</v>
       </c>
       <c r="N10" t="n">
         <v>0.001</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1</v>
+        <v>1.191782000446134</v>
       </c>
       <c r="P10" t="n">
-        <v>1.558608901461623</v>
+        <v>6.53069963455012</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001</v>
+        <v>0.01235800395383094</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>0.2273016422712798</v>
       </c>
       <c r="S10" t="n">
         <v>0.1</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09509124165928243</v>
+        <v>0.05885319262501128</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8287793939706615</v>
+        <v>1.714291136713884</v>
       </c>
     </row>
     <row r="11">
@@ -1130,64 +1130,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06023998243196765</v>
+        <v>0.03251365846184093</v>
       </c>
       <c r="C11" t="n">
-        <v>2.192192192192192</v>
+        <v>1.131131131131131</v>
       </c>
       <c r="D11" t="n">
-        <v>4.214643075626645</v>
+        <v>0.4836079185939424</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01190204440187505</v>
+        <v>0.01453757161316583</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06078690653201357</v>
+        <v>0.08139040588120409</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5068087331785622</v>
+        <v>0.562365171116213</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1674486626900251</v>
+        <v>0.1850140776608107</v>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>10.87300627695541</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9530209615875853</v>
+        <v>0.954779285431733</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>9.114188459562648</v>
+        <v>0.6433531946698469</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07078715448103572</v>
+        <v>0.0999237742972819</v>
       </c>
       <c r="O11" t="n">
-        <v>1.256061667536636</v>
+        <v>1.35738528476273</v>
       </c>
       <c r="P11" t="n">
-        <v>10</v>
+        <v>2.157326726163708</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01625329798738015</v>
+        <v>0.001</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>0.2318896201246996</v>
       </c>
       <c r="S11" t="n">
-        <v>7.056345673915506</v>
+        <v>7.9579057855424</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1</v>
+        <v>0.001823314584019944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2454862187718939</v>
+        <v>1.586454231261624</v>
       </c>
     </row>
     <row r="12">
@@ -1195,64 +1195,64 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03274947877729169</v>
+        <v>0.03242943877788906</v>
       </c>
       <c r="C12" t="n">
-        <v>1.131131131131131</v>
+        <v>1.121121121121121</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5472056743543119</v>
+        <v>0.5239909405643006</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.7307307307307307</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01329379098412747</v>
+        <v>0.01507065827808419</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08199250838581608</v>
+        <v>0.0812637364746169</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5693659837097027</v>
+        <v>0.5647634703660227</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1853336959845022</v>
+        <v>0.1847227749957995</v>
       </c>
       <c r="J12" t="n">
-        <v>10.80314676168827</v>
+        <v>10.93498236337071</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9559281559081804</v>
+        <v>0.9539117405708596</v>
       </c>
       <c r="L12" t="n">
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>9.97403996588268</v>
+        <v>4.27844540885322</v>
       </c>
       <c r="N12" t="n">
-        <v>0.08957017381715827</v>
+        <v>0.06108560369633258</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1355895576582128</v>
+        <v>1.376076136190656</v>
       </c>
       <c r="P12" t="n">
-        <v>9.583029642867075</v>
+        <v>1.590204814739522</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.001021902079333575</v>
+        <v>0.07036820841762201</v>
       </c>
       <c r="R12" t="n">
-        <v>0.7669065715110522</v>
+        <v>1.747030292150873</v>
       </c>
       <c r="S12" t="n">
-        <v>4.978831255128615</v>
+        <v>1.133750750354541</v>
       </c>
       <c r="T12" t="n">
-        <v>0.08570808696165239</v>
+        <v>0.07899762427922258</v>
       </c>
       <c r="U12" t="n">
-        <v>1.825238431260879</v>
+        <v>1.727211630525143</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03260397789284471</v>
+        <v>0.03213804755003475</v>
       </c>
       <c r="C13" t="n">
-        <v>1.151151151151151</v>
+        <v>1.101101101101101</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2731061397443391</v>
+        <v>0.6253276226477089</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7507507507507507</v>
+        <v>0.7307307307307307</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01452079076620791</v>
+        <v>0.0149018905828051</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08308260451429249</v>
+        <v>0.08007684354726548</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5690831308831503</v>
+        <v>0.5589939480955808</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1859101617922275</v>
+        <v>0.1841277900303309</v>
       </c>
       <c r="J13" t="n">
-        <v>10.73167232885546</v>
+        <v>11.01920870945381</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9546055226908481</v>
+        <v>0.9540817686029424</v>
       </c>
       <c r="L13" t="n">
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>9.526479432954961</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001</v>
+        <v>0.0953177435647545</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4713439938275982</v>
+        <v>0.1194019465466407</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.003053649268624043</v>
+        <v>0.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.364686464026375</v>
+        <v>1.945245824211582</v>
       </c>
       <c r="S13" t="n">
-        <v>4.490402835440402</v>
+        <v>10</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04304010789432693</v>
+        <v>0.02272914389495917</v>
       </c>
       <c r="U13" t="n">
-        <v>1.483489466181724</v>
+        <v>0.5000619316657507</v>
       </c>
     </row>
     <row r="14">
@@ -1325,64 +1325,64 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06058897161188741</v>
+        <v>0.0603021273172138</v>
       </c>
       <c r="C14" t="n">
-        <v>2.212212212212212</v>
+        <v>2.182182182182182</v>
       </c>
       <c r="D14" t="n">
-        <v>4.126609399364467</v>
+        <v>4.353755430232065</v>
       </c>
       <c r="E14" t="n">
         <v>0.5205205205205206</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01531626022641641</v>
+        <v>0.01012498989123138</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06059708967496435</v>
+        <v>0.06006038217635478</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5151950687242959</v>
+        <v>0.5060407013365262</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1672213294136764</v>
+        <v>0.1672917419545178</v>
       </c>
       <c r="J14" t="n">
         <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9481036908303128</v>
+        <v>0.9556851480579066</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>5.773157506157886</v>
+        <v>1.133947320610877</v>
       </c>
       <c r="N14" t="n">
-        <v>0.001</v>
+        <v>0.01384000425033363</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>0.2944814759204321</v>
       </c>
       <c r="P14" t="n">
-        <v>4.3268882243064</v>
+        <v>6.343099932624198</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.001</v>
+        <v>0.002337176294350221</v>
       </c>
       <c r="R14" t="n">
+        <v>1.53190271060711</v>
+      </c>
+      <c r="S14" t="n">
+        <v>9.727765971773545</v>
+      </c>
+      <c r="T14" t="n">
         <v>0.1</v>
       </c>
-      <c r="S14" t="n">
-        <v>10</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.03708423518026471</v>
-      </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>0.7624924625622388</v>
       </c>
     </row>
     <row r="15">
@@ -1390,64 +1390,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03271372221160342</v>
+        <v>0.06008954241737379</v>
       </c>
       <c r="C15" t="n">
-        <v>1.121121121121121</v>
+        <v>2.172172172172172</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6391461047420055</v>
+        <v>4.335274754905161</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01424533078194473</v>
+        <v>0.009724280033235947</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08190089196633929</v>
+        <v>0.06051204117009573</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5681068151932634</v>
+        <v>0.5074984811399633</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1852916065158603</v>
+        <v>0.1673996078595137</v>
       </c>
       <c r="J15" t="n">
-        <v>10.74080727573216</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9550287775342539</v>
+        <v>0.9566719194255279</v>
       </c>
       <c r="L15" t="n">
-        <v>4.936485578975996</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>5.439057796259871</v>
+        <v>0.5346692289815677</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09749886133084316</v>
+        <v>0.06935832403586957</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4457219268970045</v>
+        <v>1.270683932382693</v>
       </c>
       <c r="P15" t="n">
-        <v>9.509005892498834</v>
+        <v>5.760595504322693</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.03832003382980609</v>
+        <v>0.06203263674391916</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1</v>
+        <v>0.9134904326563251</v>
       </c>
       <c r="S15" t="n">
-        <v>6.083404604024674</v>
+        <v>3.568312330306713</v>
       </c>
       <c r="T15" t="n">
-        <v>0.06538968271152176</v>
+        <v>0.03194976085328538</v>
       </c>
       <c r="U15" t="n">
-        <v>1.938302882661035</v>
+        <v>0.5439746523543429</v>
       </c>
     </row>
     <row r="16">
@@ -1455,61 +1455,61 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06059375391660766</v>
+        <v>0.03289335743240013</v>
       </c>
       <c r="C16" t="n">
-        <v>2.202202202202202</v>
+        <v>1.171171171171171</v>
       </c>
       <c r="D16" t="n">
-        <v>4.281139185199812</v>
+        <v>0.1785288465374624</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7607607607607607</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01257088598685696</v>
+        <v>0.01462680770677701</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06123208905921141</v>
+        <v>0.08462703475132285</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5080025978539149</v>
+        <v>0.5736742738262564</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1675141295180231</v>
+        <v>0.1867578391312042</v>
       </c>
       <c r="J16" t="n">
-        <v>15</v>
+        <v>10.58352137348126</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9521903327110237</v>
+        <v>0.9550784402633995</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>10</v>
+        <v>8.87395155396214</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001</v>
+        <v>0.06308776309077122</v>
       </c>
       <c r="O16" t="n">
         <v>0.1</v>
       </c>
       <c r="P16" t="n">
-        <v>1.310383248171239</v>
+        <v>8.69973612301394</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.08104975864433352</v>
+        <v>0.02562358729216755</v>
       </c>
       <c r="R16" t="n">
-        <v>1.667278098123496</v>
+        <v>0.7253494343768433</v>
       </c>
       <c r="S16" t="n">
-        <v>4.709247115863908</v>
+        <v>6.844079994237306</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1</v>
+        <v>0.030766741650026</v>
       </c>
       <c r="U16" t="n">
         <v>0.1</v>
@@ -1520,64 +1520,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03264745161569909</v>
+        <v>0.03259880038970639</v>
       </c>
       <c r="C17" t="n">
-        <v>1.121121121121121</v>
+        <v>1.141141141141141</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6585129019881064</v>
+        <v>0.403802602403136</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01327357743950431</v>
+        <v>0.01415808901095415</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08038747767531328</v>
+        <v>0.08202504772511968</v>
       </c>
       <c r="H17" t="n">
-        <v>0.561711901549905</v>
+        <v>0.5650814717151049</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1846531120685801</v>
+        <v>0.1853933864749996</v>
       </c>
       <c r="J17" t="n">
-        <v>10.91875802613301</v>
+        <v>10.80327449631579</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9556070320511878</v>
+        <v>0.9550849215181296</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>5.051264885801621</v>
+        <v>4.800700147603663</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001007479968985871</v>
+        <v>0.0746731962962654</v>
       </c>
       <c r="O17" t="n">
-        <v>1.434135088839539</v>
+        <v>0.1002168599260126</v>
       </c>
       <c r="P17" t="n">
-        <v>8.427590160279168</v>
+        <v>2.73757790077435</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.03248934717420527</v>
+        <v>0.08390569580931473</v>
       </c>
       <c r="R17" t="n">
-        <v>1.592607417500057</v>
+        <v>1.237200409312943</v>
       </c>
       <c r="S17" t="n">
-        <v>7.038885108237976</v>
+        <v>0.1</v>
       </c>
       <c r="T17" t="n">
         <v>0.1</v>
       </c>
       <c r="U17" t="n">
-        <v>0.7998046497443321</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18">
@@ -1585,64 +1585,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05987797762987412</v>
+        <v>0.03264646792185345</v>
       </c>
       <c r="C18" t="n">
-        <v>2.172172172172172</v>
+        <v>1.151151151151151</v>
       </c>
       <c r="D18" t="n">
-        <v>4.323608785805577</v>
+        <v>0.2632244276007834</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7507507507507507</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01076962821313935</v>
+        <v>0.01432240013151108</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05760119626179025</v>
+        <v>0.08340341478280752</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4961139624832525</v>
+        <v>0.5731050369954677</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1668353005231142</v>
+        <v>0.1860213060303816</v>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>10.70390689203811</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9549477653016408</v>
+        <v>0.9550720714270304</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>3.54762100208053</v>
+        <v>5.583323221479111</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0985442127380329</v>
+        <v>0.001828896696120426</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4746170029064211</v>
+        <v>1.999073723759783</v>
       </c>
       <c r="P18" t="n">
-        <v>7.568165818234555</v>
+        <v>5.464392659393561</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.001886694044502428</v>
+        <v>0.07503731408620459</v>
       </c>
       <c r="R18" t="n">
-        <v>1.072625482593844</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>9.849540280288435</v>
+        <v>3.773956278251232</v>
       </c>
       <c r="T18" t="n">
-        <v>0.09998287022593222</v>
+        <v>0.06972193086378121</v>
       </c>
       <c r="U18" t="n">
-        <v>0.8776861404667979</v>
+        <v>1.653998476644082</v>
       </c>
     </row>
     <row r="19">
@@ -1650,64 +1650,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03303929125192322</v>
+        <v>0.03278777652946582</v>
       </c>
       <c r="C19" t="n">
-        <v>1.181181181181181</v>
+        <v>1.171171171171171</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1335800310188873</v>
+        <v>0.1402118964907828</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7707707707707707</v>
+        <v>0.7607607607607607</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01433475743676279</v>
+        <v>0.01486145536587365</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08541044229805975</v>
+        <v>0.0844075930685196</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5757363274982312</v>
+        <v>0.5718322503099806</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1872491924283351</v>
+        <v>0.1866024596674176</v>
       </c>
       <c r="J19" t="n">
-        <v>10.48122201656719</v>
+        <v>10.6231716112032</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9550317327717046</v>
+        <v>0.9543522396570319</v>
       </c>
       <c r="L19" t="n">
-        <v>4.978288094450318</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>6.409133242360317</v>
+        <v>9.105529807923762</v>
       </c>
       <c r="N19" t="n">
-        <v>0.08489030461660203</v>
+        <v>0.001594903758884949</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2039386171352352</v>
+        <v>0.8929454474431765</v>
       </c>
       <c r="P19" t="n">
-        <v>3.669305991378783</v>
+        <v>1.951293681958755</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01663703220849694</v>
+        <v>0.09369988988261034</v>
       </c>
       <c r="R19" t="n">
-        <v>0.954758462410754</v>
+        <v>0.1143773799941901</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>0.4164680403700637</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1</v>
+        <v>0.0189787129989539</v>
       </c>
       <c r="U19" t="n">
-        <v>0.7485108633212436</v>
+        <v>1.719335938186023</v>
       </c>
     </row>
     <row r="20">
@@ -1715,64 +1715,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06003580187832525</v>
+        <v>0.03233284560219774</v>
       </c>
       <c r="C20" t="n">
-        <v>2.172172172172172</v>
+        <v>1.101101101101101</v>
       </c>
       <c r="D20" t="n">
-        <v>4.466954967135917</v>
+        <v>0.7319447611836338</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01215956762973138</v>
+        <v>0.01350113299437454</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05593771558955818</v>
+        <v>0.07907488066500777</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4881881471381755</v>
+        <v>0.5581656515878931</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1665254274555249</v>
+        <v>0.1838232813183888</v>
       </c>
       <c r="J20" t="n">
-        <v>15</v>
+        <v>11.06436439473934</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9528072264025921</v>
+        <v>0.9552172569975244</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.017619336034553</v>
+        <v>7.531562635476394</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02004294943661773</v>
+        <v>0.08955692271589363</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9624340670112881</v>
+        <v>1.408887285429704</v>
       </c>
       <c r="P20" t="n">
-        <v>6.437245954063403</v>
+        <v>8.837476873779739</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.06115593232497628</v>
+        <v>0.06850522266856815</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2382758545346665</v>
+        <v>1.260037032732959</v>
       </c>
       <c r="S20" t="n">
-        <v>1.652313592612305</v>
+        <v>6.328736292598549</v>
       </c>
       <c r="T20" t="n">
-        <v>0.07384882711174065</v>
+        <v>0.06691737284998303</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3668910207347093</v>
+        <v>1.848290993592307</v>
       </c>
     </row>
     <row r="21">
@@ -1780,64 +1780,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03247178248364507</v>
+        <v>0.06006164572960115</v>
       </c>
       <c r="C21" t="n">
-        <v>1.101101101101101</v>
+        <v>2.192192192192192</v>
       </c>
       <c r="D21" t="n">
-        <v>0.805119957891165</v>
+        <v>4.220005696499696</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7207207207207207</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01446818468816536</v>
+        <v>0.01107295664417882</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07950254342005855</v>
+        <v>0.05706812772700648</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5575003523546905</v>
+        <v>0.495692115093058</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1839449633205815</v>
+        <v>0.1667120782083997</v>
       </c>
       <c r="J21" t="n">
-        <v>11.03173072905907</v>
+        <v>15</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9545416365402752</v>
+        <v>0.9546179291988293</v>
       </c>
       <c r="L21" t="n">
-        <v>4.986976129422048</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>6.364256198415777</v>
+        <v>0.1047004545082053</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1</v>
+        <v>0.001694511722911986</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7872347572273251</v>
+        <v>0.1127175786831346</v>
       </c>
       <c r="P21" t="n">
-        <v>1.126094890953964</v>
+        <v>5.986686221704372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.09987437257547851</v>
+        <v>0.008423111935086783</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2113678615406406</v>
+        <v>0.8857220173873762</v>
       </c>
       <c r="S21" t="n">
-        <v>9.999563641944201</v>
+        <v>9.632017447247586</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1</v>
+        <v>0.07972435311208231</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>0.1138798631616991</v>
       </c>
     </row>
   </sheetData>
